--- a/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC60-TORNILLOS CANULADOS 3.5-4.0-4.5 TIT.xlsx
+++ b/TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022/EQUIPOS BODEGA/P14NAC60-TORNILLOS CANULADOS 3.5-4.0-4.5 TIT.xlsx
@@ -1,46 +1,36 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\TRAZABILIDAD BODEGA JAIRO PINEDA AGO2022\EQUIPOS BODEGA\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7409C787-28D7-47EA-B78A-293498CB2E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6130"/>
+    <workbookView xWindow="13125" yWindow="180" windowWidth="10365" windowHeight="12450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INQUIORT" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Asus</author>
   </authors>
   <commentList>
-    <comment ref="E7" authorId="0" shapeId="0">
+    <comment ref="E7" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -65,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0" shapeId="0">
+    <comment ref="C9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -90,7 +80,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -114,7 +104,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -657,12 +647,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="167" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-C0A]d\ &quot;de&quot;\ mmmm\ &quot;de&quot;\ yyyy;@"/>
   </numFmts>
   <fonts count="30">
     <font>
@@ -1135,9 +1125,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="29" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1177,8 +1167,8 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1194,7 +1184,7 @@
       <alignment horizontal="center" wrapText="1" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" readingOrder="1"/>
       <protection locked="0"/>
     </xf>
@@ -1219,10 +1209,10 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1250,7 +1240,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1271,7 +1261,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="20" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1292,7 +1282,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1319,26 +1309,17 @@
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="3" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1382,9 +1363,9 @@
   <cellStyles count="5">
     <cellStyle name="Moneda" xfId="4" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
-    <cellStyle name="Normal 3" xfId="2"/>
-    <cellStyle name="Normal 3 2" xfId="3"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Normal 3 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1744,86 +1725,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:G125"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A20" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.453125" defaultRowHeight="25" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.42578125" defaultRowHeight="24.95" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="25.7265625" style="29" customWidth="1"/>
-    <col min="2" max="2" width="20.1796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="29" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="71" style="1" customWidth="1"/>
-    <col min="4" max="4" width="22.7265625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="24.26953125" style="9" customWidth="1"/>
-    <col min="6" max="6" width="20.7265625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.81640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.453125" style="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="9" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="25" customHeight="1" thickBot="1"/>
-    <row r="2" spans="1:7" ht="25" customHeight="1" thickBot="1">
+    <row r="1" spans="1:7" ht="24.95" customHeight="1" thickBot="1"/>
+    <row r="2" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
-      <c r="C2" s="88" t="s">
+      <c r="C2" s="83" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="90" t="s">
+      <c r="D2" s="85" t="s">
         <v>85</v>
       </c>
-      <c r="E2" s="91"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="40"/>
     </row>
-    <row r="3" spans="1:7" ht="25" customHeight="1" thickBot="1">
+    <row r="3" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
       <c r="A3" s="41"/>
       <c r="B3" s="42"/>
-      <c r="C3" s="89"/>
+      <c r="C3" s="84"/>
       <c r="D3" s="43" t="s">
         <v>86</v>
       </c>
       <c r="E3" s="44"/>
       <c r="F3" s="40"/>
     </row>
-    <row r="4" spans="1:7" ht="25" customHeight="1" thickBot="1">
+    <row r="4" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
-      <c r="C4" s="92" t="s">
+      <c r="C4" s="87" t="s">
         <v>87</v>
       </c>
-      <c r="D4" s="94" t="s">
+      <c r="D4" s="89" t="s">
         <v>88</v>
       </c>
-      <c r="E4" s="95"/>
+      <c r="E4" s="90"/>
       <c r="F4" s="40"/>
     </row>
-    <row r="5" spans="1:7" ht="25" customHeight="1" thickBot="1">
+    <row r="5" spans="1:7" ht="24.95" customHeight="1" thickBot="1">
       <c r="A5" s="45"/>
       <c r="B5" s="46"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="96" t="s">
+      <c r="C5" s="88"/>
+      <c r="D5" s="91" t="s">
         <v>89</v>
       </c>
-      <c r="E5" s="97"/>
+      <c r="E5" s="92"/>
       <c r="F5" s="47"/>
     </row>
-    <row r="6" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A6" s="48"/>
       <c r="B6" s="48"/>
       <c r="C6" s="48"/>
       <c r="D6" s="48"/>
       <c r="E6" s="48"/>
     </row>
-    <row r="7" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A7" s="49" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="49"/>
       <c r="C7" s="50">
         <f ca="1">NOW()</f>
-        <v>45392.628640277777</v>
+        <v>45397.915307407406</v>
       </c>
       <c r="D7" s="49" t="s">
         <v>32</v>
@@ -1833,7 +1814,7 @@
       </c>
       <c r="G7" s="37"/>
     </row>
-    <row r="8" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A8" s="13"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -1841,7 +1822,7 @@
       <c r="E8" s="13"/>
       <c r="G8" s="37"/>
     </row>
-    <row r="9" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="9" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A9" s="49" t="s">
         <v>33</v>
       </c>
@@ -1853,18 +1834,18 @@
       <c r="E9" s="54"/>
       <c r="G9" s="37"/>
     </row>
-    <row r="10" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="10" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A10" s="13"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
       <c r="D10" s="13"/>
       <c r="E10" s="13"/>
     </row>
-    <row r="11" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
-      <c r="A11" s="86" t="s">
+    <row r="11" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
+      <c r="A11" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="87"/>
+      <c r="B11" s="82"/>
       <c r="C11" s="52"/>
       <c r="D11" s="53" t="s">
         <v>91</v>
@@ -1873,7 +1854,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="12" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A12" s="13"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -1881,7 +1862,7 @@
       <c r="E12" s="13"/>
       <c r="G12" s="21"/>
     </row>
-    <row r="13" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="13" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A13" s="49" t="s">
         <v>35</v>
       </c>
@@ -1895,7 +1876,7 @@
       </c>
       <c r="G13" s="1"/>
     </row>
-    <row r="14" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="14" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A14" s="13"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -1903,7 +1884,7 @@
       <c r="E14" s="13"/>
       <c r="G14" s="22"/>
     </row>
-    <row r="15" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="15" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A15" s="49" t="s">
         <v>37</v>
       </c>
@@ -1915,7 +1896,7 @@
       <c r="E15" s="58"/>
       <c r="G15" s="1"/>
     </row>
-    <row r="16" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="16" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -1923,7 +1904,7 @@
       <c r="E16" s="13"/>
       <c r="G16" s="12"/>
     </row>
-    <row r="17" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="17" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A17" s="49" t="s">
         <v>39</v>
       </c>
@@ -1933,7 +1914,7 @@
       <c r="E17" s="60"/>
       <c r="G17" s="1"/>
     </row>
-    <row r="18" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="18" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -1941,7 +1922,7 @@
       <c r="E18" s="13"/>
       <c r="G18" s="23"/>
     </row>
-    <row r="19" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="19" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A19" s="49" t="s">
         <v>40</v>
       </c>
@@ -1953,7 +1934,7 @@
       <c r="E19" s="58"/>
       <c r="G19" s="12"/>
     </row>
-    <row r="20" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="20" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -1961,7 +1942,7 @@
       <c r="E20" s="13"/>
       <c r="G20" s="12"/>
     </row>
-    <row r="21" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="21" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A21" s="49" t="s">
         <v>94</v>
       </c>
@@ -1971,7 +1952,7 @@
       <c r="E21" s="63"/>
       <c r="G21" s="12"/>
     </row>
-    <row r="22" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="22" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A22" s="16"/>
       <c r="B22" s="7"/>
       <c r="C22" s="1"/>
@@ -1980,7 +1961,7 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
     </row>
-    <row r="23" spans="1:7" s="10" customFormat="1" ht="25" customHeight="1">
+    <row r="23" spans="1:7" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A23" s="17"/>
       <c r="B23" s="15"/>
       <c r="C23" s="15"/>
@@ -2012,7 +1993,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="25" customHeight="1">
+    <row r="25" spans="1:7" ht="24.95" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>81</v>
       </c>
@@ -2032,7 +2013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="25" customHeight="1">
+    <row r="26" spans="1:7" ht="24.95" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>68</v>
       </c>
@@ -2049,7 +2030,7 @@
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
     </row>
-    <row r="27" spans="1:7" ht="25" customHeight="1">
+    <row r="27" spans="1:7" ht="24.95" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>112</v>
       </c>
@@ -2066,7 +2047,7 @@
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
     </row>
-    <row r="28" spans="1:7" ht="25" customHeight="1">
+    <row r="28" spans="1:7" ht="24.95" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>69</v>
       </c>
@@ -2083,7 +2064,7 @@
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
     </row>
-    <row r="29" spans="1:7" ht="25" customHeight="1">
+    <row r="29" spans="1:7" ht="24.95" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>70</v>
       </c>
@@ -2100,7 +2081,7 @@
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
     </row>
-    <row r="30" spans="1:7" ht="25" customHeight="1">
+    <row r="30" spans="1:7" ht="24.95" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>82</v>
       </c>
@@ -2117,7 +2098,7 @@
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
     </row>
-    <row r="31" spans="1:7" ht="25" customHeight="1">
+    <row r="31" spans="1:7" ht="24.95" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>71</v>
       </c>
@@ -2134,7 +2115,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
     </row>
-    <row r="32" spans="1:7" ht="25" customHeight="1">
+    <row r="32" spans="1:7" ht="24.95" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>72</v>
       </c>
@@ -2151,7 +2132,7 @@
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
     </row>
-    <row r="33" spans="1:7" ht="25" customHeight="1">
+    <row r="33" spans="1:7" ht="24.95" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>73</v>
       </c>
@@ -2168,7 +2149,7 @@
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
     </row>
-    <row r="34" spans="1:7" ht="25" customHeight="1">
+    <row r="34" spans="1:7" ht="24.95" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>74</v>
       </c>
@@ -2185,7 +2166,7 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
     </row>
-    <row r="35" spans="1:7" ht="25" customHeight="1">
+    <row r="35" spans="1:7" ht="24.95" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>159</v>
       </c>
@@ -2202,7 +2183,7 @@
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
     </row>
-    <row r="36" spans="1:7" ht="25" customHeight="1">
+    <row r="36" spans="1:7" ht="24.95" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>160</v>
       </c>
@@ -2219,7 +2200,7 @@
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
     </row>
-    <row r="37" spans="1:7" ht="25" customHeight="1">
+    <row r="37" spans="1:7" ht="24.95" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>161</v>
       </c>
@@ -2236,7 +2217,7 @@
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
     </row>
-    <row r="38" spans="1:7" ht="25" customHeight="1">
+    <row r="38" spans="1:7" ht="24.95" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>162</v>
       </c>
@@ -2253,7 +2234,7 @@
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
     </row>
-    <row r="39" spans="1:7" ht="25" customHeight="1">
+    <row r="39" spans="1:7" ht="24.95" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>163</v>
       </c>
@@ -2270,7 +2251,7 @@
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
     </row>
-    <row r="40" spans="1:7" ht="25" customHeight="1">
+    <row r="40" spans="1:7" ht="24.95" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>164</v>
       </c>
@@ -2287,7 +2268,7 @@
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
     </row>
-    <row r="41" spans="1:7" ht="25" customHeight="1">
+    <row r="41" spans="1:7" ht="24.95" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>165</v>
       </c>
@@ -2304,7 +2285,7 @@
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
     </row>
-    <row r="42" spans="1:7" ht="25" customHeight="1">
+    <row r="42" spans="1:7" ht="24.95" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>166</v>
       </c>
@@ -2321,7 +2302,7 @@
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
     </row>
-    <row r="43" spans="1:7" ht="25" customHeight="1">
+    <row r="43" spans="1:7" ht="24.95" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>167</v>
       </c>
@@ -2333,7 +2314,7 @@
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
     </row>
-    <row r="44" spans="1:7" ht="25" customHeight="1">
+    <row r="44" spans="1:7" ht="24.95" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>151</v>
       </c>
@@ -2350,7 +2331,7 @@
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
     </row>
-    <row r="45" spans="1:7" ht="25" customHeight="1">
+    <row r="45" spans="1:7" ht="24.95" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>141</v>
       </c>
@@ -2367,7 +2348,7 @@
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
     </row>
-    <row r="46" spans="1:7" ht="25" customHeight="1">
+    <row r="46" spans="1:7" ht="24.95" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>137</v>
       </c>
@@ -2384,7 +2365,7 @@
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
     </row>
-    <row r="47" spans="1:7" ht="25" customHeight="1">
+    <row r="47" spans="1:7" ht="24.95" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>134</v>
       </c>
@@ -2404,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="25" customHeight="1">
+    <row r="48" spans="1:7" ht="24.95" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>132</v>
       </c>
@@ -2424,7 +2405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="25" customHeight="1">
+    <row r="49" spans="1:7" ht="24.95" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>130</v>
       </c>
@@ -2444,7 +2425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="25" customHeight="1">
+    <row r="50" spans="1:7" ht="24.95" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>129</v>
       </c>
@@ -2461,7 +2442,7 @@
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
     </row>
-    <row r="51" spans="1:7" ht="25" customHeight="1">
+    <row r="51" spans="1:7" ht="24.95" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>124</v>
       </c>
@@ -2481,7 +2462,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="25" customHeight="1">
+    <row r="52" spans="1:7" ht="24.95" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>123</v>
       </c>
@@ -2501,7 +2482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="25" customHeight="1">
+    <row r="53" spans="1:7" ht="24.95" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>120</v>
       </c>
@@ -2521,7 +2502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="25" customHeight="1">
+    <row r="54" spans="1:7" ht="24.95" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>117</v>
       </c>
@@ -2541,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="25" customHeight="1">
+    <row r="55" spans="1:7" ht="24.95" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>114</v>
       </c>
@@ -2561,7 +2542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="25" customHeight="1">
+    <row r="56" spans="1:7" ht="24.95" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>167</v>
       </c>
@@ -2577,7 +2558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="25" customHeight="1">
+    <row r="57" spans="1:7" ht="24.95" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>142</v>
       </c>
@@ -2594,7 +2575,7 @@
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
     </row>
-    <row r="58" spans="1:7" ht="25" customHeight="1">
+    <row r="58" spans="1:7" ht="24.95" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>145</v>
       </c>
@@ -2611,7 +2592,7 @@
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
     </row>
-    <row r="59" spans="1:7" ht="25" customHeight="1">
+    <row r="59" spans="1:7" ht="24.95" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>148</v>
       </c>
@@ -2628,7 +2609,7 @@
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
     </row>
-    <row r="60" spans="1:7" ht="25" customHeight="1">
+    <row r="60" spans="1:7" ht="24.95" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>167</v>
       </c>
@@ -2639,7 +2620,7 @@
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
     </row>
-    <row r="61" spans="1:7" ht="25" customHeight="1">
+    <row r="61" spans="1:7" ht="24.95" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>79</v>
       </c>
@@ -2656,58 +2637,54 @@
       <c r="F61" s="35"/>
       <c r="G61" s="64"/>
     </row>
-    <row r="62" spans="1:7" ht="25" customHeight="1">
-      <c r="A62" s="75"/>
-      <c r="B62" s="76"/>
-      <c r="C62" s="77"/>
-      <c r="D62" s="75"/>
-      <c r="E62" s="78"/>
-      <c r="F62" s="81" t="s">
+    <row r="62" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A62" s="7"/>
+      <c r="B62" s="75"/>
+      <c r="C62" s="76"/>
+      <c r="D62" s="7"/>
+      <c r="F62" s="77" t="s">
         <v>169</v>
       </c>
-      <c r="G62" s="82">
+      <c r="G62" s="78">
         <f>SUM(G44:G61)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="25" customHeight="1">
-      <c r="A63" s="75"/>
-      <c r="B63" s="76"/>
-      <c r="C63" s="77"/>
-      <c r="D63" s="75"/>
-      <c r="E63" s="78"/>
-      <c r="F63" s="81" t="s">
+    <row r="63" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A63" s="7"/>
+      <c r="B63" s="75"/>
+      <c r="C63" s="76"/>
+      <c r="D63" s="7"/>
+      <c r="F63" s="77" t="s">
         <v>170</v>
       </c>
-      <c r="G63" s="83">
+      <c r="G63" s="79">
         <f>+G62*0.12</f>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="25" customHeight="1">
-      <c r="A64" s="75"/>
-      <c r="B64" s="76"/>
-      <c r="C64" s="77"/>
-      <c r="D64" s="75"/>
-      <c r="E64" s="78"/>
-      <c r="F64" s="81" t="s">
+    <row r="64" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A64" s="7"/>
+      <c r="B64" s="75"/>
+      <c r="C64" s="76"/>
+      <c r="D64" s="7"/>
+      <c r="F64" s="77" t="s">
         <v>171</v>
       </c>
-      <c r="G64" s="83">
+      <c r="G64" s="79">
         <f>+G62+G63</f>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="25" customHeight="1">
-      <c r="A65" s="75"/>
-      <c r="B65" s="76"/>
-      <c r="C65" s="77"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="78"/>
-      <c r="F65" s="79"/>
-      <c r="G65" s="80"/>
-    </row>
-    <row r="66" spans="1:7" ht="25" customHeight="1">
+    <row r="65" spans="1:7" ht="24.95" customHeight="1">
+      <c r="A65" s="7"/>
+      <c r="B65" s="75"/>
+      <c r="C65" s="76"/>
+      <c r="D65" s="7"/>
+      <c r="F65" s="20"/>
+      <c r="G65" s="36"/>
+    </row>
+    <row r="66" spans="1:7" ht="24.95" customHeight="1">
       <c r="A66" s="18"/>
       <c r="B66" s="16"/>
       <c r="C66" s="28"/>
@@ -2715,37 +2692,37 @@
       <c r="F66" s="20"/>
       <c r="G66" s="36"/>
     </row>
-    <row r="67" spans="1:7" ht="25" customHeight="1">
+    <row r="67" spans="1:7" ht="24.95" customHeight="1">
       <c r="A67" s="18"/>
       <c r="B67" s="16"/>
       <c r="C67" s="28"/>
       <c r="D67" s="7"/>
       <c r="F67"/>
     </row>
-    <row r="68" spans="1:7" ht="25" customHeight="1">
+    <row r="68" spans="1:7" ht="24.95" customHeight="1">
       <c r="A68" s="18"/>
       <c r="B68" s="16"/>
       <c r="C68" s="28"/>
       <c r="D68" s="7"/>
       <c r="F68"/>
     </row>
-    <row r="69" spans="1:7" ht="25" customHeight="1">
+    <row r="69" spans="1:7" ht="24.95" customHeight="1">
       <c r="A69" s="18"/>
       <c r="B69" s="16"/>
       <c r="C69" s="28"/>
       <c r="D69" s="7"/>
       <c r="F69"/>
     </row>
-    <row r="70" spans="1:7" ht="25" customHeight="1">
-      <c r="B70" s="85" t="s">
+    <row r="70" spans="1:7" ht="24.95" customHeight="1">
+      <c r="B70" s="80" t="s">
         <v>95</v>
       </c>
-      <c r="C70" s="85"/>
-      <c r="D70" s="85"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="80"/>
       <c r="E70"/>
       <c r="F70"/>
     </row>
-    <row r="71" spans="1:7" ht="25" customHeight="1">
+    <row r="71" spans="1:7" ht="24.95" customHeight="1">
       <c r="B71" s="5" t="s">
         <v>4</v>
       </c>
@@ -2758,7 +2735,7 @@
       <c r="E71"/>
       <c r="F71"/>
     </row>
-    <row r="72" spans="1:7" ht="25" customHeight="1">
+    <row r="72" spans="1:7" ht="24.95" customHeight="1">
       <c r="B72" s="6" t="s">
         <v>6</v>
       </c>
@@ -2771,7 +2748,7 @@
       <c r="E72"/>
       <c r="F72"/>
     </row>
-    <row r="73" spans="1:7" ht="25" customHeight="1">
+    <row r="73" spans="1:7" ht="24.95" customHeight="1">
       <c r="B73" s="6" t="s">
         <v>8</v>
       </c>
@@ -2784,7 +2761,7 @@
       <c r="E73"/>
       <c r="F73"/>
     </row>
-    <row r="74" spans="1:7" ht="25" customHeight="1">
+    <row r="74" spans="1:7" ht="24.95" customHeight="1">
       <c r="B74" s="6" t="s">
         <v>10</v>
       </c>
@@ -2797,7 +2774,7 @@
       <c r="E74"/>
       <c r="F74"/>
     </row>
-    <row r="75" spans="1:7" ht="25" customHeight="1">
+    <row r="75" spans="1:7" ht="24.95" customHeight="1">
       <c r="B75" s="6" t="s">
         <v>10</v>
       </c>
@@ -2810,7 +2787,7 @@
       <c r="E75"/>
       <c r="F75"/>
     </row>
-    <row r="76" spans="1:7" ht="25" customHeight="1">
+    <row r="76" spans="1:7" ht="24.95" customHeight="1">
       <c r="B76" s="6" t="s">
         <v>13</v>
       </c>
@@ -2823,7 +2800,7 @@
       <c r="E76"/>
       <c r="F76"/>
     </row>
-    <row r="77" spans="1:7" ht="25" customHeight="1">
+    <row r="77" spans="1:7" ht="24.95" customHeight="1">
       <c r="B77" s="6" t="s">
         <v>15</v>
       </c>
@@ -2836,7 +2813,7 @@
       <c r="E77"/>
       <c r="F77"/>
     </row>
-    <row r="78" spans="1:7" ht="25" customHeight="1">
+    <row r="78" spans="1:7" ht="24.95" customHeight="1">
       <c r="B78" s="6" t="s">
         <v>16</v>
       </c>
@@ -2849,7 +2826,7 @@
       <c r="E78"/>
       <c r="F78"/>
     </row>
-    <row r="79" spans="1:7" ht="25" customHeight="1">
+    <row r="79" spans="1:7" ht="24.95" customHeight="1">
       <c r="B79" s="6" t="s">
         <v>18</v>
       </c>
@@ -2862,7 +2839,7 @@
       <c r="E79"/>
       <c r="F79"/>
     </row>
-    <row r="80" spans="1:7" ht="25" customHeight="1">
+    <row r="80" spans="1:7" ht="24.95" customHeight="1">
       <c r="B80" s="6" t="s">
         <v>20</v>
       </c>
@@ -2875,7 +2852,7 @@
       <c r="E80"/>
       <c r="F80"/>
     </row>
-    <row r="81" spans="1:6" ht="25" customHeight="1">
+    <row r="81" spans="1:6" ht="24.95" customHeight="1">
       <c r="B81" s="6" t="s">
         <v>22</v>
       </c>
@@ -2888,7 +2865,7 @@
       <c r="E81"/>
       <c r="F81"/>
     </row>
-    <row r="82" spans="1:6" ht="25" customHeight="1">
+    <row r="82" spans="1:6" ht="24.95" customHeight="1">
       <c r="B82" s="6" t="s">
         <v>24</v>
       </c>
@@ -2901,7 +2878,7 @@
       <c r="E82"/>
       <c r="F82"/>
     </row>
-    <row r="83" spans="1:6" ht="25" customHeight="1">
+    <row r="83" spans="1:6" ht="24.95" customHeight="1">
       <c r="B83" s="6" t="s">
         <v>26</v>
       </c>
@@ -2914,7 +2891,7 @@
       <c r="E83"/>
       <c r="F83"/>
     </row>
-    <row r="84" spans="1:6" ht="25" customHeight="1">
+    <row r="84" spans="1:6" ht="24.95" customHeight="1">
       <c r="B84" s="6" t="s">
         <v>28</v>
       </c>
@@ -2927,7 +2904,7 @@
       <c r="E84"/>
       <c r="F84"/>
     </row>
-    <row r="85" spans="1:6" ht="25" customHeight="1">
+    <row r="85" spans="1:6" ht="24.95" customHeight="1">
       <c r="B85" s="6" t="s">
         <v>27</v>
       </c>
@@ -2940,7 +2917,7 @@
       <c r="E85"/>
       <c r="F85"/>
     </row>
-    <row r="86" spans="1:6" ht="25" customHeight="1">
+    <row r="86" spans="1:6" ht="24.95" customHeight="1">
       <c r="B86" s="6" t="s">
         <v>56</v>
       </c>
@@ -2953,7 +2930,7 @@
       <c r="E86"/>
       <c r="F86"/>
     </row>
-    <row r="87" spans="1:6" ht="25" customHeight="1">
+    <row r="87" spans="1:6" ht="24.95" customHeight="1">
       <c r="A87" s="16"/>
       <c r="B87" s="6"/>
       <c r="C87" s="4"/>
@@ -2963,7 +2940,7 @@
       <c r="E87"/>
       <c r="F87"/>
     </row>
-    <row r="88" spans="1:6" ht="25" customHeight="1">
+    <row r="88" spans="1:6" ht="24.95" customHeight="1">
       <c r="A88" s="16"/>
       <c r="B88" s="2"/>
       <c r="C88" s="8"/>
@@ -2971,7 +2948,7 @@
       <c r="E88"/>
       <c r="F88"/>
     </row>
-    <row r="89" spans="1:6" ht="25" customHeight="1">
+    <row r="89" spans="1:6" ht="24.95" customHeight="1">
       <c r="A89" s="16"/>
       <c r="B89" s="6"/>
       <c r="C89" s="4"/>
@@ -2979,7 +2956,7 @@
       <c r="E89"/>
       <c r="F89"/>
     </row>
-    <row r="90" spans="1:6" ht="25" customHeight="1">
+    <row r="90" spans="1:6" ht="24.95" customHeight="1">
       <c r="A90" s="16"/>
       <c r="B90" s="6"/>
       <c r="C90" s="4"/>
@@ -2987,7 +2964,7 @@
       <c r="E90"/>
       <c r="F90"/>
     </row>
-    <row r="91" spans="1:6" ht="25" customHeight="1">
+    <row r="91" spans="1:6" ht="24.95" customHeight="1">
       <c r="A91" s="16"/>
       <c r="B91" s="6"/>
       <c r="C91" s="4"/>
@@ -2995,7 +2972,7 @@
       <c r="E91"/>
       <c r="F91"/>
     </row>
-    <row r="92" spans="1:6" ht="25" customHeight="1">
+    <row r="92" spans="1:6" ht="24.95" customHeight="1">
       <c r="A92" s="16"/>
       <c r="B92" s="6"/>
       <c r="C92" s="4"/>
@@ -3003,7 +2980,7 @@
       <c r="E92"/>
       <c r="F92"/>
     </row>
-    <row r="93" spans="1:6" ht="25" customHeight="1">
+    <row r="93" spans="1:6" ht="24.95" customHeight="1">
       <c r="A93" s="16"/>
       <c r="B93" s="6"/>
       <c r="C93" s="4"/>
@@ -3011,7 +2988,7 @@
       <c r="E93"/>
       <c r="F93"/>
     </row>
-    <row r="94" spans="1:6" ht="25" customHeight="1">
+    <row r="94" spans="1:6" ht="24.95" customHeight="1">
       <c r="A94" s="16"/>
       <c r="B94" s="6"/>
       <c r="C94" s="4"/>
@@ -3019,7 +2996,7 @@
       <c r="E94"/>
       <c r="F94"/>
     </row>
-    <row r="95" spans="1:6" ht="25" customHeight="1">
+    <row r="95" spans="1:6" ht="24.95" customHeight="1">
       <c r="A95" s="16"/>
       <c r="B95" s="6"/>
       <c r="C95" s="4"/>
@@ -3027,7 +3004,7 @@
       <c r="E95"/>
       <c r="F95"/>
     </row>
-    <row r="96" spans="1:6" ht="25" customHeight="1">
+    <row r="96" spans="1:6" ht="24.95" customHeight="1">
       <c r="A96" s="16"/>
       <c r="B96" s="66" t="s">
         <v>102</v>
@@ -3039,7 +3016,7 @@
       <c r="E96"/>
       <c r="F96"/>
     </row>
-    <row r="97" spans="1:6" ht="25" customHeight="1">
+    <row r="97" spans="1:6" ht="24.95" customHeight="1">
       <c r="A97" s="16"/>
       <c r="B97" s="66"/>
       <c r="C97" s="67" t="s">
@@ -3049,7 +3026,7 @@
       <c r="E97"/>
       <c r="F97"/>
     </row>
-    <row r="98" spans="1:6" ht="25" customHeight="1">
+    <row r="98" spans="1:6" ht="24.95" customHeight="1">
       <c r="B98" s="66"/>
       <c r="C98" s="67" t="s">
         <v>105</v>
@@ -3057,7 +3034,7 @@
       <c r="E98" s="8"/>
       <c r="F98" s="1"/>
     </row>
-    <row r="99" spans="1:6" ht="25" customHeight="1">
+    <row r="99" spans="1:6" ht="24.95" customHeight="1">
       <c r="B99" s="66"/>
       <c r="C99" s="67" t="s">
         <v>106</v>
@@ -3065,7 +3042,7 @@
       <c r="E99" s="8"/>
       <c r="F99" s="1"/>
     </row>
-    <row r="100" spans="1:6" ht="25" customHeight="1">
+    <row r="100" spans="1:6" ht="24.95" customHeight="1">
       <c r="B100" s="66"/>
       <c r="C100" s="67" t="s">
         <v>107</v>
@@ -3073,13 +3050,13 @@
       <c r="E100" s="7"/>
       <c r="F100" s="1"/>
     </row>
-    <row r="101" spans="1:6" ht="25" customHeight="1">
+    <row r="101" spans="1:6" ht="24.95" customHeight="1">
       <c r="B101" s="66"/>
       <c r="C101" s="67"/>
       <c r="E101" s="7"/>
       <c r="F101" s="1"/>
     </row>
-    <row r="102" spans="1:6" ht="25" customHeight="1">
+    <row r="102" spans="1:6" ht="24.95" customHeight="1">
       <c r="B102" s="68" t="s">
         <v>91</v>
       </c>
@@ -3089,7 +3066,7 @@
       <c r="E102" s="7"/>
       <c r="F102" s="1"/>
     </row>
-    <row r="103" spans="1:6" ht="25" customHeight="1">
+    <row r="103" spans="1:6" ht="24.95" customHeight="1">
       <c r="B103" s="68"/>
       <c r="C103" s="69" t="s">
         <v>109</v>
@@ -3097,7 +3074,7 @@
       <c r="E103" s="7"/>
       <c r="F103" s="1"/>
     </row>
-    <row r="104" spans="1:6" ht="25" customHeight="1">
+    <row r="104" spans="1:6" ht="24.95" customHeight="1">
       <c r="B104" s="68"/>
       <c r="C104" s="69" t="s">
         <v>110</v>
@@ -3106,92 +3083,83 @@
       <c r="E104" s="11"/>
       <c r="F104" s="1"/>
     </row>
-    <row r="105" spans="1:6" ht="25" customHeight="1">
+    <row r="105" spans="1:6" ht="24.95" customHeight="1">
       <c r="B105" s="70"/>
       <c r="C105" s="71"/>
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
     </row>
-    <row r="106" spans="1:6" ht="25" customHeight="1">
+    <row r="106" spans="1:6" ht="24.95" customHeight="1">
       <c r="B106" s="70"/>
       <c r="C106" s="71"/>
       <c r="D106" s="12"/>
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
     </row>
-    <row r="107" spans="1:6" ht="25" customHeight="1">
+    <row r="107" spans="1:6" ht="24.95" customHeight="1">
       <c r="C107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
     </row>
-    <row r="108" spans="1:6" ht="25" customHeight="1">
+    <row r="108" spans="1:6" ht="24.95" customHeight="1">
       <c r="B108"/>
       <c r="C108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
     </row>
-    <row r="109" spans="1:6" ht="25" customHeight="1">
+    <row r="109" spans="1:6" ht="24.95" customHeight="1">
       <c r="B109"/>
       <c r="C109" s="7"/>
     </row>
-    <row r="110" spans="1:6" ht="25" customHeight="1" thickBot="1">
+    <row r="110" spans="1:6" ht="24.95" customHeight="1" thickBot="1">
       <c r="B110" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C110" s="65"/>
     </row>
-    <row r="111" spans="1:6" ht="25" customHeight="1">
+    <row r="111" spans="1:6" ht="24.95" customHeight="1">
       <c r="C111"/>
     </row>
-    <row r="112" spans="1:6" ht="25" customHeight="1">
+    <row r="112" spans="1:6" ht="24.95" customHeight="1">
       <c r="C112"/>
     </row>
-    <row r="113" spans="2:3" ht="25" customHeight="1" thickBot="1">
+    <row r="113" spans="2:3" ht="24.95" customHeight="1" thickBot="1">
       <c r="B113" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C113" s="65"/>
     </row>
-    <row r="114" spans="2:3" ht="25" customHeight="1">
-      <c r="C114" s="84"/>
-    </row>
-    <row r="115" spans="2:3" ht="25" customHeight="1">
-      <c r="C115" s="84"/>
-    </row>
-    <row r="116" spans="2:3" ht="25" customHeight="1">
+    <row r="116" spans="2:3" ht="24.95" customHeight="1">
       <c r="C116"/>
     </row>
-    <row r="117" spans="2:3" ht="25" customHeight="1">
+    <row r="117" spans="2:3" ht="24.95" customHeight="1">
       <c r="C117"/>
     </row>
-    <row r="118" spans="2:3" ht="25" customHeight="1" thickBot="1">
+    <row r="118" spans="2:3" ht="24.95" customHeight="1" thickBot="1">
       <c r="B118" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C118" s="65"/>
     </row>
-    <row r="119" spans="2:3" ht="25" customHeight="1">
-      <c r="C119" s="84"/>
-    </row>
-    <row r="120" spans="2:3" ht="25" customHeight="1">
+    <row r="120" spans="2:3" ht="24.95" customHeight="1">
       <c r="C120"/>
     </row>
-    <row r="121" spans="2:3" ht="25" customHeight="1">
+    <row r="121" spans="2:3" ht="24.95" customHeight="1">
       <c r="C121"/>
     </row>
-    <row r="122" spans="2:3" ht="25" customHeight="1" thickBot="1">
+    <row r="122" spans="2:3" ht="24.95" customHeight="1" thickBot="1">
       <c r="B122" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C122" s="65"/>
     </row>
-    <row r="123" spans="2:3" ht="25" customHeight="1">
+    <row r="123" spans="2:3" ht="24.95" customHeight="1">
       <c r="C123"/>
     </row>
-    <row r="124" spans="2:3" ht="25" customHeight="1">
+    <row r="124" spans="2:3" ht="24.95" customHeight="1">
       <c r="C124"/>
     </row>
-    <row r="125" spans="2:3" ht="25" customHeight="1" thickBot="1">
+    <row r="125" spans="2:3" ht="24.95" customHeight="1" thickBot="1">
       <c r="B125" s="1" t="s">
         <v>67</v>
       </c>
